--- a/other/educationPsychology/supplementary/event3_simulation/教育局 心理測量 event_1 student  (Responses).xlsx
+++ b/other/educationPsychology/supplementary/event3_simulation/教育局 心理測量 event_1 student  (Responses).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ydnaandy123.github.io\other\educationPsychology\supplementary\event3_simulation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D71B34-21AB-4865-9A7D-D6FA00770F7E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06265842-D09A-43A8-9603-C43C57F4EC7B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10275" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,9 +31,6 @@
     <t>姓名</t>
   </si>
   <si>
-    <t>1.我覺得任何困難都能解決</t>
-  </si>
-  <si>
     <t>2.當我遇到困難時，我會試著從書本中找出解決的方法</t>
   </si>
   <si>
@@ -41,6 +38,9 @@
   </si>
   <si>
     <t>4.與別人相處時，我是屬於比較沉默的一方</t>
+  </si>
+  <si>
+    <t>5.我覺得同學不喜歡我</t>
   </si>
   <si>
     <t>王小華</t>
@@ -417,21 +417,21 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="21.5703125" customWidth="1"/>
-    <col min="5" max="5" width="20.5703125" customWidth="1"/>
-    <col min="6" max="14" width="21.5703125" customWidth="1"/>
+    <col min="1" max="3" width="21.5703125" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" customWidth="1"/>
+    <col min="5" max="13" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -454,7 +454,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>43448.644174502318</v>
       </c>
@@ -465,20 +465,19 @@
         <v>7</v>
       </c>
       <c r="D2" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E2" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F2" s="2">
         <v>3</v>
       </c>
       <c r="G2" s="2">
-        <v>3</v>
-      </c>
-      <c r="H2" s="2"/>
+        <v>2</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>43448.659063854167</v>
       </c>
@@ -489,20 +488,19 @@
         <v>8</v>
       </c>
       <c r="D3" s="2">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2">
         <v>3</v>
       </c>
-      <c r="E3" s="2">
-        <v>2</v>
-      </c>
-      <c r="F3" s="2">
-        <v>1</v>
-      </c>
-      <c r="G3" s="2">
-        <v>1</v>
-      </c>
-      <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>43448.659359467594</v>
       </c>
@@ -516,17 +514,16 @@
         <v>5</v>
       </c>
       <c r="E4" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F4" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G4" s="2">
         <v>1</v>
       </c>
-      <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>43448.659738807866</v>
       </c>
@@ -537,20 +534,19 @@
         <v>10</v>
       </c>
       <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2">
+        <v>4</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2">
         <v>2</v>
       </c>
-      <c r="E5" s="2">
-        <v>1</v>
-      </c>
-      <c r="F5" s="2">
-        <v>4</v>
-      </c>
-      <c r="G5" s="2">
-        <v>1</v>
-      </c>
-      <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>43448.660065682867</v>
       </c>
@@ -561,18 +557,17 @@
         <v>11</v>
       </c>
       <c r="D6" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E6" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F6" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G6" s="2">
         <v>1</v>
       </c>
-      <c r="H6" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
